--- a/cities/Makkah/Makkah.xlsx
+++ b/cities/Makkah/Makkah.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>Makkah</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,21 +507,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mohammad Mahmoud</t>
+          <t>Salman Butt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rawahel Al-</t>
+          <t>Umm Al Qura University</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT Strategist and Planner</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,27 +536,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>mmahmoud@rawahel.com.sa</t>
+          <t>ssbutt@uqu.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salman Butt</t>
+          <t>khalid aljawi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Umm Al Qura University</t>
+          <t>General cars syndicat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IT Strategist and Planner</t>
+          <t>Network Admin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ssbutt@uqu.edu.sa</t>
+          <t>kha@naqaba.com.sa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>khalid aljawi</t>
+          <t>Adel Abdeen Mohamed</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>General cars syndicat</t>
+          <t>Al Rawda Investment For Real State Developmet &amp; Projects Management</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Network Admin</t>
+          <t>Regional I.T Manager</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>makkah</t>
+          <t>Makkah</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>kha@naqaba.com.sa</t>
+          <t>adel_abdeen@alharamhotel.com</t>
         </is>
       </c>
     </row>
